--- a/public/templates/temp_rasp.xlsx
+++ b/public/templates/temp_rasp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\logbook\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\logbook-dev\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Расписание занятий</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Типа тема</t>
+  </si>
+  <si>
+    <t>УТВЕРЖДАЮ
+Проректор Приволжского института повышения квалификации ФНС России
+_____________ И.В.Кожанова 
+«____» _____________ 2020 г.</t>
+  </si>
+  <si>
+    <t>20.01.2020 – 20.02.2020</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -214,12 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -243,6 +246,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +610,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,32 +622,41 @@
     <col min="5" max="5" width="13.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="9"/>
+      <c r="C2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -652,7 +676,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="31">
         <v>43840</v>
       </c>
       <c r="B6" s="17">
@@ -669,164 +693,164 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="24"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="24"/>
       <c r="C8" s="16"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="24"/>
       <c r="C9" s="16"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="25"/>
       <c r="C10" s="20"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="25"/>
       <c r="C11" s="20"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="25"/>
       <c r="C12" s="20"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="25"/>
       <c r="C13" s="20"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="25"/>
       <c r="C14" s="20"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="25"/>
       <c r="C15" s="20"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="25"/>
       <c r="C16" s="20"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="25"/>
       <c r="C17" s="20"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="25"/>
       <c r="C18" s="20"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="25"/>
       <c r="C19" s="20"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="25"/>
       <c r="C20" s="20"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="25"/>
       <c r="C21" s="20"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="25"/>
       <c r="C22" s="20"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="25"/>
       <c r="C23" s="20"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="25"/>
       <c r="C24" s="20"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="25"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="31"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="10"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="7"/>
       <c r="C30" s="4"/>
       <c r="D30" s="15"/>
@@ -834,11 +858,11 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -931,8 +955,9 @@
       <c r="A62" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:E4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D1:E4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/templates/temp_rasp.xlsx
+++ b/public/templates/temp_rasp.xlsx
@@ -41,9 +41,6 @@
     <t>Тема</t>
   </si>
   <si>
-    <t>группа</t>
-  </si>
-  <si>
     <t>поток</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>20.01.2020 – 20.02.2020</t>
+  </si>
+  <si>
+    <t>Период:</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,7 +610,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,24 +627,24 @@
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -683,13 +683,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="18">
         <v>2002</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
